--- a/doc/数字货币玩法总结.xlsx
+++ b/doc/数字货币玩法总结.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="25068" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="趋势交易系统" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,134 +28,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>项目</t>
   </si>
   <si>
-    <t>优点</t>
-  </si>
-  <si>
-    <t>缺点</t>
-  </si>
-  <si>
-    <t>适合人群</t>
-  </si>
-  <si>
-    <t>时间要求</t>
-  </si>
-  <si>
-    <t>成本要求</t>
-  </si>
-  <si>
-    <t>领取空投</t>
-  </si>
-  <si>
-    <t>不需要额外投资，免费获得虚拟货币。</t>
-  </si>
-  <si>
-    <t>耗时间（主动型）、成功率低（被动型）、代币可能不值钱。</t>
-  </si>
-  <si>
-    <r>
-      <t>X to Earn</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（玩虚拟货币游戏）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>运动娱乐与赚钱相结合，有一定的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>主要逻辑</t>
+  </si>
+  <si>
+    <t>难点</t>
+  </si>
+  <si>
+    <t>不清楚问题</t>
+  </si>
+  <si>
+    <t>合约</t>
+  </si>
+  <si>
+    <t>找到即将下架的合约进行做空</t>
+  </si>
+  <si>
+    <t>信息收集
+信息准确性
+执行时间</t>
+  </si>
+  <si>
+    <t>为什么会被下架。
+在哪里获取这些信息。
+获取这些信息到开始下跌的时间间隔一般是多长，有多大的操作空间。</t>
+  </si>
+  <si>
+    <t>通过技术分析进行高概率事件进行做多做空</t>
+  </si>
+  <si>
+    <t>风险管理
+入场时机
+止盈位置</t>
+  </si>
+  <si>
+    <t>如何操作，适用于哪些场景。</t>
+  </si>
+  <si>
+    <t>滚仓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如何操作的，适用于哪些场景。
+如何把他转化成流程：
+发现趋势
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>趣味性。</t>
-    </r>
-  </si>
-  <si>
-    <t>一般需要掏钱买道具装备、随着人数增加奖励会递减而且贬值、
-往往受游戏公会操控。</t>
-  </si>
-  <si>
-    <t>SocialFi</t>
-  </si>
-  <si>
-    <t>有创作能力都可以加入，不需要投资。</t>
-  </si>
-  <si>
-    <t>代币价格较差、没有名气的创作者很难获得打赏、缺乏优质内容、
-抄袭泛滥、项目缺乏商业模式很容易死。</t>
-  </si>
-  <si>
-    <r>
-      <t>创建</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NFT</t>
-    </r>
-  </si>
-  <si>
-    <t>矿机挖矿</t>
-  </si>
-  <si>
-    <r>
-      <t>DeFi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挖矿</t>
-    </r>
-  </si>
-  <si>
-    <t>存币收息</t>
-  </si>
-  <si>
-    <t>低买高卖</t>
-  </si>
-  <si>
-    <t>期货合约</t>
-  </si>
-  <si>
-    <t>搬砖套利</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>核心点</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>实例</t>
+  </si>
+  <si>
+    <t>优缺点</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>开平仓规则</t>
+  </si>
+  <si>
+    <t>开仓位置</t>
+  </si>
+  <si>
+    <t>上升趋势支撑位开多</t>
+  </si>
+  <si>
+    <t>下降趋势找压力位做空</t>
+  </si>
+  <si>
+    <t>突破开多/开空</t>
+  </si>
+  <si>
+    <t>平仓位置</t>
+  </si>
+  <si>
+    <t>止盈位置</t>
+  </si>
+  <si>
+    <t>主动止盈：左侧交易</t>
+  </si>
+  <si>
+    <t>k线偏离均线太远，情绪过热</t>
+  </si>
+  <si>
+    <t>判断对了，吃掉所有利润
+判断错了，踏空后面的行情</t>
+  </si>
+  <si>
+    <t>被动止盈：右侧交易</t>
+  </si>
+  <si>
+    <t>当出现了反转反转信号，跌破某个均线</t>
+  </si>
+  <si>
+    <t>假如行情很大，就不会踏空</t>
+  </si>
+  <si>
+    <t>不止盈</t>
+  </si>
+  <si>
+    <t>资金管理</t>
+  </si>
+  <si>
+    <t>开仓（试仓）多少</t>
+  </si>
+  <si>
+    <t>开单试仓的金额不超过5%</t>
+  </si>
+  <si>
+    <t>加仓多少</t>
+  </si>
+  <si>
+    <t>止盈多少</t>
+  </si>
+  <si>
+    <t>持仓多久</t>
+  </si>
+  <si>
+    <t>开仓五大原则</t>
+  </si>
+  <si>
+    <t>开仓以后必须设置止损</t>
+  </si>
+  <si>
+    <t>每次开单的止损金额不超过5%</t>
+  </si>
+  <si>
+    <t>试仓方向判断错误以后就及时离场</t>
+  </si>
+  <si>
+    <t>加仓比例按照1：1：1或者1：2：1</t>
   </si>
 </sst>
 </file>
@@ -185,6 +203,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -198,18 +236,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF4B4B4B"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -352,12 +378,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4B4B4B"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -686,160 +706,184 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1366,113 +1410,362 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="31.2166666666667" customWidth="1"/>
-    <col min="3" max="3" width="54.625" customWidth="1"/>
+    <col min="1" max="1" width="9.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="41.1944444444444" customWidth="1"/>
+    <col min="3" max="3" width="14.2685185185185" customWidth="1"/>
+    <col min="4" max="4" width="50.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="8" customFormat="1" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="72" customHeight="1" spans="1:4">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="55.5" customHeight="1" spans="1:4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="72" customHeight="1" spans="1:4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.41666666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.8240740740741" customWidth="1"/>
+    <col min="3" max="3" width="33.8981481481481" customWidth="1"/>
+    <col min="4" max="4" width="37.4907407407407" customWidth="1"/>
+    <col min="5" max="5" width="27.2314814814815" customWidth="1"/>
+    <col min="6" max="6" width="26.3055555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="60" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:1">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
